--- a/static/images/hotwire_template.xlsx
+++ b/static/images/hotwire_template.xlsx
@@ -38,9 +38,6 @@
     <t>CONTACT INFO</t>
   </si>
   <si>
-    <t>PROPERTY</t>
-  </si>
-  <si>
     <t>REQUEST</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>MLITAR TIME (HH:MM)</t>
+  </si>
+  <si>
+    <t>PROJECT ID</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
+      <selection activeCell="A2" sqref="A2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,19 +443,19 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>

--- a/static/images/hotwire_template.xlsx
+++ b/static/images/hotwire_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnavarrog/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnavarrog/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -127,24 +124,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,197 +417,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection activeCell="G1" activeCellId="4" sqref="C1:C1048576 D1:D1048576 E1:E1048576 F1:F1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="73.5" customWidth="1"/>
+    <col min="1" max="1" width="40" style="7" customWidth="1"/>
+    <col min="2" max="2" width="71" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="73.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="45" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
